--- a/result/日报总表2.0.xlsx
+++ b/result/日报总表2.0.xlsx
@@ -169,7 +169,7 @@
     <t>潼港分理处</t>
   </si>
   <si>
-    <t>东波支行</t>
+    <t>东波分理处</t>
   </si>
   <si>
     <t>益江分理处</t>
@@ -603,13 +603,13 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -618,25 +618,25 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
         <v>160</v>
       </c>
       <c r="K2">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -647,40 +647,40 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0.44</v>
+        <v>0.08</v>
       </c>
       <c r="J3">
         <v>160</v>
       </c>
       <c r="K3">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>0.64</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -691,40 +691,40 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>140</v>
       </c>
       <c r="K4">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>0.89</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -735,40 +735,40 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>13.3</v>
+        <v>0.3</v>
       </c>
       <c r="J5">
         <v>120</v>
       </c>
       <c r="K5">
-        <v>154.8</v>
+        <v>11</v>
       </c>
       <c r="L5">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="N5">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="O5">
-        <v>1.34</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -779,43 +779,43 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>4.55</v>
+        <v>0.1</v>
       </c>
       <c r="J6">
         <v>110</v>
       </c>
       <c r="K6">
-        <v>177.57</v>
+        <v>8</v>
       </c>
       <c r="L6">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="M6">
         <v>9.800000000000001</v>
       </c>
       <c r="N6">
-        <v>188.8</v>
+        <v>28.8</v>
       </c>
       <c r="O6">
-        <v>1.72</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -826,40 +826,40 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>130</v>
       </c>
       <c r="K7">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>0.8</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -870,40 +870,40 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>140</v>
       </c>
       <c r="K8">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="L8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="N8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O8">
-        <v>0.92</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -914,40 +914,40 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>80</v>
       </c>
       <c r="K9">
-        <v>78.12</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="N9">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="O9">
-        <v>1.06</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -958,40 +958,40 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1.73</v>
+        <v>0.13</v>
       </c>
       <c r="J10">
         <v>160</v>
       </c>
       <c r="K10">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="N10">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="O10">
-        <v>0.5600000000000001</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1026,16 +1026,16 @@
         <v>130</v>
       </c>
       <c r="K11">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1070,16 +1070,16 @@
         <v>110</v>
       </c>
       <c r="K12">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>0.75</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1090,40 +1090,40 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>110</v>
       </c>
       <c r="K13">
-        <v>96.9157</v>
+        <v>19</v>
       </c>
       <c r="L13">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="N13">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="O13">
-        <v>0.97</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1134,40 +1134,40 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>70</v>
       </c>
       <c r="K14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O14">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1178,40 +1178,40 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="J15">
         <v>140</v>
       </c>
       <c r="K15">
-        <v>126.95</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="O15">
-        <v>0.97</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1222,40 +1222,40 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N16">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O16">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1266,40 +1266,40 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>55</v>
       </c>
       <c r="K17">
-        <v>102.3</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>1.89</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1310,40 +1310,40 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>79.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1354,40 +1354,40 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="J19">
         <v>140</v>
       </c>
       <c r="K19">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="N19">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O19">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1398,40 +1398,40 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>80</v>
       </c>
       <c r="K20">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="N20">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="O20">
-        <v>1.36</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1463,16 +1463,16 @@
         <v>70</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1483,40 +1483,40 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
       <c r="J22">
         <v>70</v>
       </c>
       <c r="K22">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="O22">
-        <v>0.53</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1527,40 +1527,40 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>0.29</v>
       </c>
       <c r="J23">
         <v>50</v>
       </c>
       <c r="K23">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1571,40 +1571,40 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>7</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>1.93</v>
+        <v>0.67</v>
       </c>
       <c r="J24">
         <v>70</v>
       </c>
       <c r="K24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1615,40 +1615,40 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>5.86</v>
+        <v>0.29</v>
       </c>
       <c r="J25">
         <v>50</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O25">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1683,16 +1683,16 @@
         <v>50</v>
       </c>
       <c r="K26">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1727,16 +1727,16 @@
         <v>140</v>
       </c>
       <c r="K27">
-        <v>91.5</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.66</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1747,40 +1747,40 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="J28">
         <v>70</v>
       </c>
       <c r="K28">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="N28">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="O28">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1791,40 +1791,40 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>55</v>
       </c>
       <c r="K29">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>1.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1835,40 +1835,40 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>45</v>
       </c>
       <c r="K30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O30">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1879,40 +1879,40 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>6</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>12</v>
-      </c>
       <c r="I31">
-        <v>1.71</v>
+        <v>0.86</v>
       </c>
       <c r="J31">
         <v>50</v>
       </c>
       <c r="K31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1923,40 +1923,40 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>70</v>
       </c>
       <c r="K32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1991,16 +1991,16 @@
         <v>100</v>
       </c>
       <c r="K33">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="O33">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2011,40 +2011,40 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>80</v>
       </c>
       <c r="K34">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2099,40 +2099,40 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>6.29</v>
+        <v>0.57</v>
       </c>
       <c r="J36">
         <v>55</v>
       </c>
       <c r="K36">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>0.24</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2167,16 +2167,16 @@
         <v>55</v>
       </c>
       <c r="K37">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>0.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2187,40 +2187,40 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>68.5</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>6.9</v>
+        <v>0.4</v>
       </c>
       <c r="J38">
         <v>70</v>
       </c>
       <c r="K38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2233,7 +2233,13 @@
       <c r="C39">
         <v>0</v>
       </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
@@ -2250,6 +2256,9 @@
       </c>
       <c r="K39">
         <v>-5</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2301,40 +2310,40 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>50</v>
       </c>
       <c r="K41">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N41">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O41">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2345,40 +2354,40 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>55</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N42">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O42">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2389,40 +2398,40 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>1.43</v>
+        <v>0.29</v>
       </c>
       <c r="J43">
         <v>55</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2433,40 +2442,40 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>50</v>
       </c>
       <c r="K44">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N44">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O44">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2501,16 +2510,16 @@
         <v>45</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/result/日报总表2.0.xlsx
+++ b/result/日报总表2.0.xlsx
@@ -603,7 +603,7 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -671,16 +671,16 @@
         <v>160</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="O3">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -715,16 +715,16 @@
         <v>140</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="O4">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -759,16 +759,16 @@
         <v>120</v>
       </c>
       <c r="K5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O5">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -779,31 +779,31 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J6">
         <v>110</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>19</v>
@@ -894,7 +894,7 @@
         <v>140</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>14</v>
@@ -958,31 +958,31 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>0.13</v>
+        <v>0.8</v>
       </c>
       <c r="J10">
         <v>160</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>36</v>
@@ -1070,16 +1070,16 @@
         <v>110</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1114,7 +1114,7 @@
         <v>110</v>
       </c>
       <c r="K13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>34</v>
@@ -1158,7 +1158,7 @@
         <v>70</v>
       </c>
       <c r="K14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>22</v>
@@ -1178,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1202,16 +1202,16 @@
         <v>140</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O15">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1246,7 +1246,7 @@
         <v>100</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -1378,7 +1378,7 @@
         <v>140</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>14</v>
@@ -1422,16 +1422,16 @@
         <v>80</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O20">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1527,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1571,25 +1571,25 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>7</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I24">
-        <v>0.67</v>
+        <v>1.4</v>
       </c>
       <c r="J24">
         <v>70</v>
@@ -1750,37 +1750,37 @@
         <v>2</v>
       </c>
       <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J28">
         <v>70</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O28">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2035,7 +2035,7 @@
         <v>80</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -2190,37 +2190,37 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J38">
         <v>70</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2255,16 +2255,16 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2334,7 +2334,7 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>12</v>
@@ -2398,7 +2398,7 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2422,7 +2422,7 @@
         <v>55</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>1</v>

--- a/result/日报总表2.0.xlsx
+++ b/result/日报总表2.0.xlsx
@@ -627,16 +627,16 @@
         <v>160</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -671,7 +671,7 @@
         <v>160</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>17</v>
@@ -715,7 +715,7 @@
         <v>140</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>14</v>
@@ -759,7 +759,7 @@
         <v>120</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>36</v>
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -870,40 +870,40 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J8">
         <v>140</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="N8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O8">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -938,16 +938,16 @@
         <v>80</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="O9">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -982,16 +982,16 @@
         <v>160</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N10">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O10">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1070,7 +1070,7 @@
         <v>110</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>4</v>
@@ -1202,7 +1202,7 @@
         <v>140</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>11</v>
@@ -1354,25 +1354,25 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>0.2</v>
       </c>
       <c r="J19">
         <v>140</v>
@@ -1422,16 +1422,16 @@
         <v>80</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O20">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1571,7 +1571,7 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -1703,25 +1703,25 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="J27">
         <v>140</v>
@@ -1747,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1771,16 +1771,16 @@
         <v>70</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N28">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O28">
-        <v>0.14</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2187,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>70</v>
       </c>
       <c r="K38">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O38">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2255,7 +2255,7 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -2310,25 +2310,25 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="J41">
         <v>50</v>
@@ -2398,40 +2398,40 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="J43">
         <v>55</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="44" spans="1:15">

--- a/result/日报总表2.0.xlsx
+++ b/result/日报总表2.0.xlsx
@@ -627,16 +627,16 @@
         <v>160</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O2">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -671,16 +671,16 @@
         <v>160</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -691,25 +691,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
         <v>140</v>
@@ -759,16 +759,16 @@
         <v>120</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N5">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O5">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -870,7 +870,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -894,16 +894,16 @@
         <v>140</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N8">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="O8">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -938,7 +938,7 @@
         <v>80</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>28</v>
@@ -982,7 +982,7 @@
         <v>160</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>46</v>
@@ -1026,16 +1026,16 @@
         <v>130</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1114,16 +1114,16 @@
         <v>110</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O13">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1202,16 +1202,16 @@
         <v>140</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O15">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1354,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1378,16 +1378,16 @@
         <v>140</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O19">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1422,7 +1422,7 @@
         <v>80</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>29</v>
@@ -1703,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1727,16 +1727,16 @@
         <v>140</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="O27">
-        <v>0.01</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1747,31 +1747,31 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J28">
         <v>70</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>30</v>
@@ -1991,16 +1991,16 @@
         <v>100</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O33">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2211,7 +2211,7 @@
         <v>70</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>10</v>
@@ -2310,7 +2310,7 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2398,40 +2398,40 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I43">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>55</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O43">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="44" spans="1:15">

--- a/result/日报总表2.0.xlsx
+++ b/result/日报总表2.0.xlsx
@@ -603,13 +603,13 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -618,25 +618,25 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="J2">
         <v>160</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -647,40 +647,40 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="I3">
-        <v>0.08</v>
+        <v>2.44</v>
       </c>
       <c r="J3">
         <v>160</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N3">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="O3">
-        <v>0.11</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -694,37 +694,37 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="J4">
         <v>140</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="N4">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="O4">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -735,25 +735,25 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="I5">
-        <v>0.3</v>
+        <v>0.57</v>
       </c>
       <c r="J5">
         <v>120</v>
@@ -762,13 +762,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N5">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O5">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -782,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J6">
         <v>110</v>
@@ -806,16 +806,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6">
         <v>9.800000000000001</v>
       </c>
       <c r="N6">
-        <v>28.8</v>
+        <v>32.8</v>
       </c>
       <c r="O6">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -850,16 +850,16 @@
         <v>130</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="O7">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -870,13 +870,13 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -885,25 +885,25 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J8">
         <v>140</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N8">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="O8">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -938,16 +938,16 @@
         <v>80</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O9">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -958,40 +958,40 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="J10">
         <v>160</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="N10">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="O10">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1005,37 +1005,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J11">
         <v>130</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1093,37 +1093,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="J13">
         <v>110</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N13">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="O13">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1158,16 +1158,16 @@
         <v>70</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N14">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="O14">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1205,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N15">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="O15">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1249,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="O16">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1337,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1354,25 +1354,25 @@
         <v>10</v>
       </c>
       <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>8</v>
       </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J19">
         <v>140</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="N19">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O19">
-        <v>0.1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1422,16 +1422,16 @@
         <v>80</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N20">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O20">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1507,16 +1507,16 @@
         <v>70</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O22">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1527,25 +1527,25 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
         <v>2</v>
-      </c>
-      <c r="I23">
-        <v>0.29</v>
       </c>
       <c r="J23">
         <v>50</v>
@@ -1615,40 +1615,40 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>0.29</v>
+        <v>1.14</v>
       </c>
       <c r="J25">
         <v>50</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N25">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O25">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1703,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1730,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="O27">
-        <v>0.01</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1747,40 +1747,40 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="J28">
         <v>70</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O28">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1862,13 +1862,13 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="O30">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1882,22 +1882,22 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I31">
-        <v>0.86</v>
+        <v>1.43</v>
       </c>
       <c r="J31">
         <v>50</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1994,13 +1994,13 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="O33">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2038,13 +2038,13 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O34">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2082,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2123,16 +2123,16 @@
         <v>55</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="O36">
-        <v>0.07000000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2190,28 +2190,28 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I38">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="J38">
         <v>70</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>10</v>
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O39">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2310,7 +2310,7 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2337,13 +2337,13 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O41">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2378,16 +2378,16 @@
         <v>55</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O42">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2398,40 +2398,40 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I43">
-        <v>0.57</v>
+        <v>1.29</v>
       </c>
       <c r="J43">
         <v>55</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O43">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="44" spans="1:15">

--- a/result/日报总表2.0.xlsx
+++ b/result/日报总表2.0.xlsx
@@ -600,16 +600,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -618,25 +618,28 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.92</v>
+        <v>0.06</v>
       </c>
       <c r="J2">
-        <v>160</v>
+        <v>116.666666666667</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O2">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -644,43 +647,46 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>59</v>
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="O3">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -688,43 +694,46 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
         <v>21</v>
       </c>
-      <c r="I4">
-        <v>2.1</v>
-      </c>
-      <c r="J4">
-        <v>140</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>50</v>
+      <c r="M4">
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="O4">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -732,43 +741,46 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>120</v>
+        <v>108.333333333333</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>0.45</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -776,46 +788,46 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>108.333333333333</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>0.4</v>
-      </c>
-      <c r="J6">
-        <v>110</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>23</v>
-      </c>
-      <c r="M6">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="N6">
-        <v>32.8</v>
-      </c>
       <c r="O6">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -823,43 +835,46 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>14.1666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="O7">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -867,43 +882,46 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>140</v>
+        <v>116.666666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -935,19 +953,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>80</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -955,43 +976,46 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
       <c r="I10">
-        <v>1.33</v>
+        <v>0.12</v>
       </c>
       <c r="J10">
-        <v>160</v>
+        <v>166.666666666667</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>0.58</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -999,43 +1023,46 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>14.1666666666667</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>130</v>
+        <v>116.666666666667</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1043,7 +1070,7 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1067,19 +1094,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>110</v>
+        <v>91.6666666666667</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1087,43 +1117,46 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>110</v>
+        <v>116.666666666667</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>51</v>
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>0.46</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1131,7 +1164,7 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>14.1666666666667</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1155,19 +1188,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>0.51</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1175,43 +1211,46 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>4.5</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>7.5</v>
-      </c>
       <c r="I15">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="J15">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="O15">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1219,43 +1258,46 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>100</v>
+        <v>108.333333333333</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1263,7 +1305,7 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1287,19 +1329,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O17">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1307,7 +1352,7 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1331,19 +1376,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1351,43 +1399,46 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1395,7 +1446,7 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>10.8333333333333</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1419,19 +1470,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1439,7 +1493,7 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1460,19 +1514,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>70</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1486,37 +1543,40 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>70</v>
+        <v>91.6666666666667</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O22">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1524,43 +1584,46 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0.24</v>
       </c>
       <c r="J23">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1568,36 +1631,39 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>70</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
@@ -1612,43 +1678,46 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>8</v>
-      </c>
       <c r="I25">
-        <v>1.14</v>
+        <v>0.24</v>
       </c>
       <c r="J25">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1656,7 +1725,7 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1683,16 +1752,19 @@
         <v>50</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1700,43 +1772,46 @@
         <v>39</v>
       </c>
       <c r="B27">
+        <v>8.33333333333333</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
         <v>7</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>0.29</v>
-      </c>
-      <c r="J27">
-        <v>140</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>61</v>
+      <c r="M27">
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="O27">
-        <v>0.44</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1747,40 +1822,43 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="J28">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1788,7 +1866,7 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1812,19 +1890,22 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>55</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1832,7 +1913,7 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1856,19 +1937,22 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1876,43 +1960,46 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1920,7 +2007,7 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1944,12 +2031,15 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
@@ -1964,43 +2054,46 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2008,7 +2101,7 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2032,19 +2125,22 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2052,7 +2148,7 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2082,13 +2178,16 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O35">
-        <v>0.06</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2096,43 +2195,46 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2140,7 +2242,7 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2164,19 +2266,22 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2190,37 +2295,40 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>70</v>
+        <v>79.1666666666667</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2228,7 +2336,7 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2252,19 +2360,22 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2272,14 +2383,20 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
       <c r="E40">
         <v>0</v>
       </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
       <c r="G40">
         <v>0</v>
       </c>
@@ -2290,16 +2407,22 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2307,43 +2430,46 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>79.1666666666667</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
         <v>2</v>
       </c>
-      <c r="I41">
-        <v>0.29</v>
-      </c>
-      <c r="J41">
-        <v>50</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>15</v>
+      <c r="M41">
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2351,7 +2477,7 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2375,19 +2501,22 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>55</v>
+        <v>91.6666666666667</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2395,43 +2524,46 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>1.29</v>
+        <v>0.24</v>
       </c>
       <c r="J43">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O43">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2439,28 +2571,28 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="J44">
         <v>50</v>
@@ -2469,13 +2601,16 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O44">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2483,7 +2618,7 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2507,12 +2642,15 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">

--- a/result/日报总表2.0.xlsx
+++ b/result/日报总表2.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>鑫e贷授信_指标</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>鑫e贷授信_协同外拓</t>
-  </si>
-  <si>
-    <t>鑫e贷授信_A款计0.5户</t>
   </si>
   <si>
     <t>鑫e贷授信_数据调整数</t>
@@ -545,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,60 +588,54 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B2">
         <v>16.6666666666667</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="I2">
-        <v>0.06</v>
+        <v>116.666666666667</v>
       </c>
       <c r="J2">
-        <v>116.666666666667</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N2">
-        <v>8</v>
-      </c>
-      <c r="O2">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>16.6666666666667</v>
@@ -653,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,45 +653,42 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N3">
-        <v>21</v>
-      </c>
-      <c r="O3">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>12.5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,45 +697,42 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="L4">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N4">
-        <v>21</v>
-      </c>
-      <c r="O4">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>16.6666666666667</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,45 +741,42 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>108.333333333333</v>
       </c>
       <c r="J5">
-        <v>108.333333333333</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>16.6666666666667</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,139 +785,130 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>108.333333333333</v>
       </c>
       <c r="J6">
-        <v>108.333333333333</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>14.1666666666667</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0.14</v>
       </c>
       <c r="I7">
-        <v>0.14</v>
+        <v>100</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N7">
-        <v>23</v>
-      </c>
-      <c r="O7">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>16.6666666666667</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>116.666666666667</v>
       </c>
       <c r="J8">
-        <v>116.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,36 +917,33 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="J9">
-        <v>83.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>16.6666666666667</v>
@@ -982,54 +952,51 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0.78</v>
       </c>
       <c r="I10">
-        <v>0.12</v>
+        <v>166.666666666667</v>
       </c>
       <c r="J10">
-        <v>166.666666666667</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>14.1666666666667</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,36 +1005,33 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>116.666666666667</v>
       </c>
       <c r="J11">
-        <v>116.666666666667</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N11">
-        <v>9</v>
-      </c>
-      <c r="O11">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>13.3333333333333</v>
@@ -1091,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>91.6666666666667</v>
       </c>
       <c r="J12">
-        <v>91.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1108,13 +1072,10 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>16.6666666666667</v>
@@ -1123,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1132,36 +1093,33 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>116.666666666667</v>
       </c>
       <c r="J13">
-        <v>116.666666666667</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>14.1666666666667</v>
@@ -1185,86 +1143,80 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>16.6666666666667</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="I15">
-        <v>0.12</v>
+        <v>125</v>
       </c>
       <c r="J15">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N15">
-        <v>10</v>
-      </c>
-      <c r="O15">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>16.6666666666667</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1273,45 +1225,42 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>108.333333333333</v>
       </c>
       <c r="J16">
-        <v>108.333333333333</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>8.33333333333333</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1320,45 +1269,42 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J17">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>13</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
-        <v>13</v>
-      </c>
-      <c r="O17">
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>8.33333333333333</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1367,16 +1313,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1390,22 +1336,19 @@
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>12.5</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1414,36 +1357,33 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>10.8333333333333</v>
@@ -1467,74 +1407,62 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J20">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>12.5</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="J21">
-        <v>83.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -1558,77 +1486,71 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>91.6666666666667</v>
       </c>
       <c r="J22">
-        <v>91.6666666666667</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N22">
-        <v>11</v>
-      </c>
-      <c r="O22">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>8.33333333333333</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0.48</v>
       </c>
       <c r="I23">
-        <v>0.24</v>
+        <v>75</v>
       </c>
       <c r="J23">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>8</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
-        <v>8</v>
-      </c>
-      <c r="O23">
         <v>0.11</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>12.5</v>
@@ -1652,86 +1574,80 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="J24">
-        <v>83.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>8.33333333333333</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="I25">
-        <v>0.24</v>
+        <v>75</v>
       </c>
       <c r="J25">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>8.33333333333333</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1740,36 +1656,33 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J26">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N26">
-        <v>2</v>
-      </c>
-      <c r="O26">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>8.33333333333333</v>
@@ -1793,86 +1706,80 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N27">
-        <v>7</v>
-      </c>
-      <c r="O27">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I28">
-        <v>0.2</v>
+        <v>75</v>
       </c>
       <c r="J28">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>12.5</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1881,45 +1788,42 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="J29">
-        <v>83.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>8.33333333333333</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1928,16 +1832,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J30">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1951,22 +1855,19 @@
       <c r="N30">
         <v>0</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>8.33333333333333</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1975,36 +1876,33 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J31">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>8.33333333333333</v>
@@ -2028,36 +1926,33 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J32">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>8.33333333333333</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2066,48 +1961,45 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0.12</v>
       </c>
       <c r="I33">
-        <v>0.24</v>
+        <v>75</v>
       </c>
       <c r="J33">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N33">
-        <v>3</v>
-      </c>
-      <c r="O33">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>8.33333333333333</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2116,36 +2008,33 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J34">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>8.33333333333333</v>
@@ -2169,39 +2058,36 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>20</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
-        <v>20</v>
-      </c>
-      <c r="O35">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>8.33333333333333</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2210,45 +2096,42 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>8.33333333333333</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2257,45 +2140,42 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>3</v>
-      </c>
-      <c r="O37">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2304,45 +2184,42 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>79.1666666666667</v>
       </c>
       <c r="J38">
-        <v>79.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>8.33333333333333</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2351,16 +2228,16 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2374,22 +2251,19 @@
       <c r="N39">
         <v>0</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>8.33333333333333</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2398,36 +2272,33 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -2451,30 +2322,27 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>79.1666666666667</v>
       </c>
       <c r="J41">
-        <v>79.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N41">
-        <v>2</v>
-      </c>
-      <c r="O41">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>12.5</v>
@@ -2498,124 +2366,115 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>91.6666666666667</v>
       </c>
       <c r="J42">
-        <v>91.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43">
         <v>8.33333333333333</v>
       </c>
       <c r="C43">
+        <v>-2</v>
+      </c>
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0.24</v>
       </c>
       <c r="I43">
-        <v>0.24</v>
+        <v>50</v>
       </c>
       <c r="J43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N43">
-        <v>20</v>
-      </c>
-      <c r="O43">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44">
         <v>8.33333333333333</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0.24</v>
       </c>
       <c r="I44">
-        <v>0.24</v>
+        <v>50</v>
       </c>
       <c r="J44">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N44">
-        <v>5</v>
-      </c>
-      <c r="O44">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>8.33333333333333</v>
@@ -2639,25 +2498,22 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/result/日报总表2.0.xlsx
+++ b/result/日报总表2.0.xlsx
@@ -597,28 +597,28 @@
         <v>16.6666666666667</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>0.78</v>
+        <v>2.4</v>
       </c>
       <c r="I2">
         <v>116.666666666667</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>19</v>
@@ -662,16 +662,16 @@
         <v>150</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3">
         <v>0.25</v>
@@ -685,7 +685,7 @@
         <v>12.5</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>16.6666666666667</v>
       </c>
       <c r="C5">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -773,7 +773,7 @@
         <v>16.6666666666667</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>108.333333333333</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>24</v>
@@ -817,7 +817,7 @@
         <v>14.1666666666667</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -838,19 +838,19 @@
         <v>100</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -861,22 +861,22 @@
         <v>16.6666666666667</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="I8">
         <v>116.666666666667</v>
@@ -905,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -926,19 +926,19 @@
         <v>83.3333333333333</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N9">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -970,7 +970,7 @@
         <v>166.666666666667</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>89</v>
@@ -993,7 +993,7 @@
         <v>14.1666666666667</v>
       </c>
       <c r="C11">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1014,7 +1014,7 @@
         <v>116.666666666667</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>21</v>
@@ -1102,19 +1102,19 @@
         <v>116.666666666667</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1146,7 +1146,7 @@
         <v>100</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -1169,40 +1169,40 @@
         <v>16.6666666666667</v>
       </c>
       <c r="C15">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H15">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
       <c r="I15">
         <v>125</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N15">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1213,7 +1213,7 @@
         <v>16.6666666666667</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1257,7 +1257,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C18">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1345,7 +1345,7 @@
         <v>12.5</v>
       </c>
       <c r="C19">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1366,19 +1366,19 @@
         <v>100</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N19">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1410,19 +1410,19 @@
         <v>75</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K20">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N20">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1489,19 +1489,19 @@
         <v>91.6666666666667</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N22">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1512,10 +1512,10 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C23">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="I23">
         <v>75</v>
@@ -1600,7 +1600,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C25">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>50</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -1732,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -1753,7 +1753,7 @@
         <v>75</v>
       </c>
       <c r="J28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>40</v>
@@ -1776,7 +1776,7 @@
         <v>12.5</v>
       </c>
       <c r="C29">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1820,7 +1820,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1929,19 +1929,19 @@
         <v>75</v>
       </c>
       <c r="J32">
-        <v>10</v>
+        <v>-18</v>
       </c>
       <c r="K32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>0.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1952,40 +1952,40 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H33">
-        <v>0.12</v>
+        <v>2.28</v>
       </c>
       <c r="I33">
         <v>75</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K33">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N33">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1996,7 +1996,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2084,7 +2084,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2128,7 +2128,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -2216,7 +2216,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2325,19 +2325,19 @@
         <v>79.1666666666667</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K41">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N41">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2392,7 +2392,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C43">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2436,7 +2436,7 @@
         <v>8.33333333333333</v>
       </c>
       <c r="C44">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2457,7 +2457,7 @@
         <v>50</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>25</v>
